--- a/EUROMUSCLEPARTS.com CSV.xlsx
+++ b/EUROMUSCLEPARTS.com CSV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edmilbe\Documents\catalogos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9B5452-7B48-4C9F-98D5-783125CFFF69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC2354C-2DF3-467A-B719-5A596358A158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D27926C1-2B34-41E3-A3A5-5A89717C378C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D27926C1-2B34-41E3-A3A5-5A89717C378C}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -472,11 +472,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -793,12 +802,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B196B85F-5E08-4D5B-88CD-A4D8656E9A37}">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:N27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="5" max="6" width="9.140625" style="4"/>
     <col min="11" max="11" width="17.7109375" customWidth="1"/>
     <col min="12" max="12" width="22.85546875" customWidth="1"/>
     <col min="13" max="13" width="61.42578125" bestFit="1" customWidth="1"/>
@@ -818,10 +828,10 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -865,10 +875,10 @@
       <c r="D2" s="1">
         <v>6364.29</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="6">
         <v>15</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="6">
         <v>7</v>
       </c>
       <c r="G2" t="s">
@@ -909,10 +919,10 @@
       <c r="D3" s="1">
         <v>2373.7399999999998</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="6">
         <v>15</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="6">
         <v>7</v>
       </c>
       <c r="G3" t="s">
@@ -953,10 +963,10 @@
       <c r="D4" s="1">
         <v>1395.67</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="6">
         <v>15</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="6">
         <v>7</v>
       </c>
       <c r="G4" t="s">
@@ -997,10 +1007,10 @@
       <c r="D5" s="1">
         <v>1395.67</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="6">
         <v>15</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="6">
         <v>7</v>
       </c>
       <c r="G5" t="s">
@@ -1041,10 +1051,10 @@
       <c r="D6" s="1">
         <v>2373.7399999999998</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="6">
         <v>15</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="6">
         <v>7</v>
       </c>
       <c r="G6" t="s">
@@ -1085,10 +1095,10 @@
       <c r="D7" s="1">
         <v>6364.29</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="6">
         <v>15</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="6">
         <v>7</v>
       </c>
       <c r="G7" t="s">
@@ -1129,10 +1139,10 @@
       <c r="D8" s="1">
         <v>4595.68</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="6">
         <v>15</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="6">
         <v>7</v>
       </c>
       <c r="G8" t="s">
@@ -1173,10 +1183,10 @@
       <c r="D9">
         <v>778.72</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="6">
         <v>15</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="6">
         <v>7</v>
       </c>
       <c r="G9" t="s">
@@ -1217,10 +1227,10 @@
       <c r="D10">
         <v>425.52</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="6">
         <v>15</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="6">
         <v>7</v>
       </c>
       <c r="G10" t="s">
@@ -1261,10 +1271,10 @@
       <c r="D11" s="1">
         <v>3631.04</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="6">
         <v>15</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="6">
         <v>7</v>
       </c>
       <c r="G11" t="s">
@@ -1305,10 +1315,10 @@
       <c r="D12" s="1">
         <v>4541.08</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="6">
         <v>15</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="6">
         <v>7</v>
       </c>
       <c r="G12" t="s">
@@ -1349,10 +1359,10 @@
       <c r="D13" s="1">
         <v>1107.08</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="6">
         <v>15</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="6">
         <v>7</v>
       </c>
       <c r="G13" t="s">
@@ -1393,10 +1403,10 @@
       <c r="D14" s="1">
         <v>1128.3900000000001</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="6">
         <v>15</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="6">
         <v>7</v>
       </c>
       <c r="G14" t="s">
@@ -1437,10 +1447,10 @@
       <c r="D15">
         <v>1368</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="6">
         <v>25</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="6">
         <v>7</v>
       </c>
       <c r="G15" t="s">
@@ -1482,10 +1492,10 @@
       <c r="D16">
         <v>1368</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="6">
         <v>25</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="6">
         <v>7</v>
       </c>
       <c r="G16" t="s">
@@ -1527,10 +1537,10 @@
       <c r="D17">
         <v>330</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="6">
         <v>25</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="6">
         <v>7</v>
       </c>
       <c r="G17" t="s">
@@ -1572,10 +1582,10 @@
       <c r="D18">
         <v>223.06</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="6" t="s">
         <v>86</v>
       </c>
       <c r="G18" t="s">
@@ -1613,10 +1623,10 @@
       <c r="D19">
         <v>415.78500000000003</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="6" t="s">
         <v>86</v>
       </c>
       <c r="G19" t="s">
@@ -1654,10 +1664,10 @@
       <c r="D20">
         <v>552.59500000000003</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="6" t="s">
         <v>86</v>
       </c>
       <c r="G20" t="s">
@@ -1695,10 +1705,10 @@
       <c r="D21">
         <v>576.375</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="6" t="s">
         <v>86</v>
       </c>
       <c r="G21" t="s">
@@ -1736,10 +1746,10 @@
       <c r="D22">
         <v>594.23</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="6" t="s">
         <v>86</v>
       </c>
       <c r="G22" t="s">
@@ -1777,10 +1787,10 @@
       <c r="D23">
         <v>618.01499999999999</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="6" t="s">
         <v>86</v>
       </c>
       <c r="G23" t="s">
@@ -1818,10 +1828,10 @@
       <c r="D24">
         <v>552.59500000000003</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="6" t="s">
         <v>86</v>
       </c>
       <c r="G24" t="s">
@@ -1859,10 +1869,10 @@
       <c r="D25">
         <v>576.38</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="6" t="s">
         <v>86</v>
       </c>
       <c r="G25" t="s">
@@ -1900,10 +1910,10 @@
       <c r="D26">
         <v>594.23</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="6" t="s">
         <v>86</v>
       </c>
       <c r="G26" t="s">
@@ -1941,10 +1951,10 @@
       <c r="D27">
         <v>618.02</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="6" t="s">
         <v>86</v>
       </c>
       <c r="G27" t="s">
